--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74F8689-55D1-4B3A-A09F-C16C1D78160C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA412A0B-553A-4B26-B3A4-6C5D6B8D54F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8ADCC2EA-A5FA-4443-8AF5-A613C9BE2F61}"/>
   </bookViews>
@@ -22,6 +22,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Everyone</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,14 +385,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55475C67-2E93-479B-8042-CE84CB91C21A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA412A0B-553A-4B26-B3A4-6C5D6B8D54F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AEC6E7-EFFB-4FCC-8A92-E73B7E0426A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8ADCC2EA-A5FA-4443-8AF5-A613C9BE2F61}"/>
   </bookViews>
@@ -385,27 +385,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55475C67-2E93-479B-8042-CE84CB91C21A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1">
+        <f>LEN(A1)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C3" si="0">LEN(A2)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AEC6E7-EFFB-4FCC-8A92-E73B7E0426A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F0B052-F831-4C25-9FE9-B841E10436AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8ADCC2EA-A5FA-4443-8AF5-A613C9BE2F61}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Hello</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Everyone</t>
+  </si>
+  <si>
+    <t>Hehehhe</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55475C67-2E93-479B-8042-CE84CB91C21A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,6 +423,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F0B052-F831-4C25-9FE9-B841E10436AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE14D403-1166-4BDB-A353-B8EE5319B1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8ADCC2EA-A5FA-4443-8AF5-A613C9BE2F61}"/>
   </bookViews>
@@ -388,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55475C67-2E93-479B-8042-CE84CB91C21A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,17 +404,25 @@
         <f>LEN(A1)</f>
         <v>5</v>
       </c>
+      <c r="E1">
+        <f>FIND("e", A1)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C3" si="0">LEN(A2)</f>
+        <f t="shared" ref="C2:C4" si="0">LEN(A2)</f>
         <v>5</v>
       </c>
+      <c r="E2" t="e">
+        <f t="shared" ref="E2:E4" si="1">FIND("e", A2)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -422,10 +430,22 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
